--- a/schedule-ita.xlsx
+++ b/schedule-ita.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t xml:space="preserve">day</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t xml:space="preserve">Moni Muster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:30</t>
   </si>
   <si>
     <t xml:space="preserve">Drohne</t>
@@ -120,6 +123,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -141,6 +145,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -226,13 +231,13 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="19.36"/>
@@ -335,28 +340,28 @@
         <v>2022-01-03</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>120</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
